--- a/template Excel/Accountting/KPIAccounting.xlsx
+++ b/template Excel/Accountting/KPIAccounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85F9746-2DEB-43C9-B90D-95215020599A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6887E-9FD9-4C4D-B3E7-D0C127D56D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{961ABFF2-0AAE-4A73-81F9-F746ADEB7391}"/>
+    <workbookView xWindow="1785" yWindow="4380" windowWidth="21600" windowHeight="11835" xr2:uid="{961ABFF2-0AAE-4A73-81F9-F746ADEB7391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -718,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>

--- a/template Excel/Accountting/KPIAccounting.xlsx
+++ b/template Excel/Accountting/KPIAccounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6887E-9FD9-4C4D-B3E7-D0C127D56D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047DCCB9-2E36-4D5C-B5E9-44BA47A1A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="4380" windowWidth="21600" windowHeight="11835" xr2:uid="{961ABFF2-0AAE-4A73-81F9-F746ADEB7391}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{961ABFF2-0AAE-4A73-81F9-F746ADEB7391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>PerformanceEvaluationAccountingId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>EmployeeId</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>WorkPerformanceScore</t>
   </si>
   <si>
@@ -71,10 +65,10 @@
     <t>CostToRevenueRatio</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>KPIAccountingId</t>
   </si>
 </sst>
 </file>
@@ -118,12 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,45 +459,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B32B48A-E7F0-4EDB-896B-FD426AC0D74D}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -510,8 +508,8 @@
       <c r="B2" s="2">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+      <c r="C2" s="3">
+        <v>45533</v>
       </c>
       <c r="D2" s="2">
         <v>85</v>
@@ -545,8 +543,8 @@
       <c r="B3" s="2">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+      <c r="C3" s="3">
+        <v>45534</v>
       </c>
       <c r="D3" s="2">
         <v>78</v>
@@ -580,8 +578,8 @@
       <c r="B4" s="2">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="3">
+        <v>45535</v>
       </c>
       <c r="D4" s="2">
         <v>92</v>
@@ -615,8 +613,8 @@
       <c r="B5" s="2">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="3">
+        <v>45536</v>
       </c>
       <c r="D5" s="2">
         <v>80</v>
@@ -650,8 +648,8 @@
       <c r="B6" s="2">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="3">
+        <v>45537</v>
       </c>
       <c r="D6" s="2">
         <v>90</v>
@@ -685,8 +683,8 @@
       <c r="B7" s="2">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+      <c r="C7" s="3">
+        <v>45538</v>
       </c>
       <c r="D7" s="2">
         <v>87</v>
@@ -720,8 +718,8 @@
       <c r="B8" s="2">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
+      <c r="C8" s="3">
+        <v>45539</v>
       </c>
       <c r="D8" s="2">
         <v>80</v>
@@ -755,8 +753,8 @@
       <c r="B9" s="2">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
+      <c r="C9" s="3">
+        <v>45540</v>
       </c>
       <c r="D9" s="2">
         <v>94</v>
@@ -790,8 +788,8 @@
       <c r="B10" s="2">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
+      <c r="C10" s="3">
+        <v>45541</v>
       </c>
       <c r="D10" s="2">
         <v>82</v>
@@ -825,8 +823,8 @@
       <c r="B11" s="2">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
+      <c r="C11" s="3">
+        <v>45542</v>
       </c>
       <c r="D11" s="2">
         <v>89</v>
